--- a/traderecords/f6_20211123.xlsx
+++ b/traderecords/f6_20211123.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1714" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="500">
   <si>
     <t>证券代码</t>
   </si>
@@ -682,15 +682,6 @@
     <t>天弘300</t>
   </si>
   <si>
-    <t>成交类型</t>
-  </si>
-  <si>
-    <t>买卖</t>
-  </si>
-  <si>
-    <t>撤单</t>
-  </si>
-  <si>
     <t>方向</t>
   </si>
   <si>
@@ -1144,411 +1135,6 @@
     <t>0.00</t>
   </si>
   <si>
-    <t>成交金额</t>
-  </si>
-  <si>
-    <t>2841.00</t>
-  </si>
-  <si>
-    <t>1894.00</t>
-  </si>
-  <si>
-    <t>947.00</t>
-  </si>
-  <si>
-    <t>9526.00</t>
-  </si>
-  <si>
-    <t>14376.00</t>
-  </si>
-  <si>
-    <t>2515.00</t>
-  </si>
-  <si>
-    <t>3898.00</t>
-  </si>
-  <si>
-    <t>4432.00</t>
-  </si>
-  <si>
-    <t>3120.00</t>
-  </si>
-  <si>
-    <t>3856.62</t>
-  </si>
-  <si>
-    <t>3249.38</t>
-  </si>
-  <si>
-    <t>8034.00</t>
-  </si>
-  <si>
-    <t>4800.00</t>
-  </si>
-  <si>
-    <t>10494.00</t>
-  </si>
-  <si>
-    <t>3636.00</t>
-  </si>
-  <si>
-    <t>2743.00</t>
-  </si>
-  <si>
-    <t>8136.00</t>
-  </si>
-  <si>
-    <t>6938.00</t>
-  </si>
-  <si>
-    <t>3608.00</t>
-  </si>
-  <si>
-    <t>1786.00</t>
-  </si>
-  <si>
-    <t>2423.00</t>
-  </si>
-  <si>
-    <t>5944.00</t>
-  </si>
-  <si>
-    <t>2934.00</t>
-  </si>
-  <si>
-    <t>2907.00</t>
-  </si>
-  <si>
-    <t>4676.00</t>
-  </si>
-  <si>
-    <t>3690.00</t>
-  </si>
-  <si>
-    <t>1845.00</t>
-  </si>
-  <si>
-    <t>5486.00</t>
-  </si>
-  <si>
-    <t>7392.00</t>
-  </si>
-  <si>
-    <t>6075.00</t>
-  </si>
-  <si>
-    <t>5132.00</t>
-  </si>
-  <si>
-    <t>7638.00</t>
-  </si>
-  <si>
-    <t>3828.00</t>
-  </si>
-  <si>
-    <t>9570.00</t>
-  </si>
-  <si>
-    <t>15680.00</t>
-  </si>
-  <si>
-    <t>5151.00</t>
-  </si>
-  <si>
-    <t>5082.00</t>
-  </si>
-  <si>
-    <t>1424.00</t>
-  </si>
-  <si>
-    <t>5553.00</t>
-  </si>
-  <si>
-    <t>15280.00</t>
-  </si>
-  <si>
-    <t>4592.00</t>
-  </si>
-  <si>
-    <t>3923.00</t>
-  </si>
-  <si>
-    <t>2924.00</t>
-  </si>
-  <si>
-    <t>1263.00</t>
-  </si>
-  <si>
-    <t>10525.00</t>
-  </si>
-  <si>
-    <t>5070.00</t>
-  </si>
-  <si>
-    <t>6084.00</t>
-  </si>
-  <si>
-    <t>6488.00</t>
-  </si>
-  <si>
-    <t>3853.00</t>
-  </si>
-  <si>
-    <t>8592.00</t>
-  </si>
-  <si>
-    <t>11676.00</t>
-  </si>
-  <si>
-    <t>4702.00</t>
-  </si>
-  <si>
-    <t>7555.00</t>
-  </si>
-  <si>
-    <t>2088.00</t>
-  </si>
-  <si>
-    <t>8005.00</t>
-  </si>
-  <si>
-    <t>6408.00</t>
-  </si>
-  <si>
-    <t>3251.00</t>
-  </si>
-  <si>
-    <t>7035.00</t>
-  </si>
-  <si>
-    <t>4344.00</t>
-  </si>
-  <si>
-    <t>3610.00</t>
-  </si>
-  <si>
-    <t>4760.00</t>
-  </si>
-  <si>
-    <t>7731.00</t>
-  </si>
-  <si>
-    <t>7436.00</t>
-  </si>
-  <si>
-    <t>5776.00</t>
-  </si>
-  <si>
-    <t>2435.00</t>
-  </si>
-  <si>
-    <t>4965.00</t>
-  </si>
-  <si>
-    <t>10718.00</t>
-  </si>
-  <si>
-    <t>10827.00</t>
-  </si>
-  <si>
-    <t>2417.00</t>
-  </si>
-  <si>
-    <t>5446.00</t>
-  </si>
-  <si>
-    <t>3890.00</t>
-  </si>
-  <si>
-    <t>4870.00</t>
-  </si>
-  <si>
-    <t>1776.00</t>
-  </si>
-  <si>
-    <t>4751.00</t>
-  </si>
-  <si>
-    <t>4347.00</t>
-  </si>
-  <si>
-    <t>6755.00</t>
-  </si>
-  <si>
-    <t>5008.00</t>
-  </si>
-  <si>
-    <t>5007.00</t>
-  </si>
-  <si>
-    <t>8773.00</t>
-  </si>
-  <si>
-    <t>4614.00</t>
-  </si>
-  <si>
-    <t>7605.00</t>
-  </si>
-  <si>
-    <t>585.00</t>
-  </si>
-  <si>
-    <t>3489.42</t>
-  </si>
-  <si>
-    <t>5218.58</t>
-  </si>
-  <si>
-    <t>4460.00</t>
-  </si>
-  <si>
-    <t>3200.00</t>
-  </si>
-  <si>
-    <t>9450.00</t>
-  </si>
-  <si>
-    <t>7091.00</t>
-  </si>
-  <si>
-    <t>8255.00</t>
-  </si>
-  <si>
-    <t>5652.00</t>
-  </si>
-  <si>
-    <t>1032.00</t>
-  </si>
-  <si>
-    <t>516.00</t>
-  </si>
-  <si>
-    <t>1426.00</t>
-  </si>
-  <si>
-    <t>5160.00</t>
-  </si>
-  <si>
-    <t>2939.00</t>
-  </si>
-  <si>
-    <t>5878.00</t>
-  </si>
-  <si>
-    <t>6685.00</t>
-  </si>
-  <si>
-    <t>2372.00</t>
-  </si>
-  <si>
-    <t>4860.00</t>
-  </si>
-  <si>
-    <t>1215.00</t>
-  </si>
-  <si>
-    <t>6832.00</t>
-  </si>
-  <si>
-    <t>3684.00</t>
-  </si>
-  <si>
-    <t>1677.00</t>
-  </si>
-  <si>
-    <t>13920.00</t>
-  </si>
-  <si>
-    <t>8100.00</t>
-  </si>
-  <si>
-    <t>2910.00</t>
-  </si>
-  <si>
-    <t>3720.00</t>
-  </si>
-  <si>
-    <t>1860.00</t>
-  </si>
-  <si>
-    <t>5990.00</t>
-  </si>
-  <si>
-    <t>8133.00</t>
-  </si>
-  <si>
-    <t>5497.00</t>
-  </si>
-  <si>
-    <t>2982.00</t>
-  </si>
-  <si>
-    <t>4083.00</t>
-  </si>
-  <si>
-    <t>1567.00</t>
-  </si>
-  <si>
-    <t>1568.00</t>
-  </si>
-  <si>
-    <t>3832.00</t>
-  </si>
-  <si>
-    <t>1339.00</t>
-  </si>
-  <si>
-    <t>8764.00</t>
-  </si>
-  <si>
-    <t>5676.00</t>
-  </si>
-  <si>
-    <t>1770.00</t>
-  </si>
-  <si>
-    <t>3540.00</t>
-  </si>
-  <si>
-    <t>778.00</t>
-  </si>
-  <si>
-    <t>2334.00</t>
-  </si>
-  <si>
-    <t>1556.00</t>
-  </si>
-  <si>
-    <t>3112.00</t>
-  </si>
-  <si>
-    <t>1638.00</t>
-  </si>
-  <si>
-    <t>3276.00</t>
-  </si>
-  <si>
-    <t>7693.00</t>
-  </si>
-  <si>
-    <t>4208.00</t>
-  </si>
-  <si>
-    <t>3792.00</t>
-  </si>
-  <si>
-    <t>9328.00</t>
-  </si>
-  <si>
-    <t>3888.00</t>
-  </si>
-  <si>
-    <t>3972.00</t>
-  </si>
-  <si>
-    <t>2735.00</t>
-  </si>
-  <si>
     <t>成交时间</t>
   </si>
   <si>
@@ -1922,258 +1508,6 @@
   </si>
   <si>
     <t>2021-11-23 09:15:01.000</t>
-  </si>
-  <si>
-    <t>委托数量</t>
-  </si>
-  <si>
-    <t>委托价格</t>
-  </si>
-  <si>
-    <t>24.07</t>
-  </si>
-  <si>
-    <t>7.38</t>
-  </si>
-  <si>
-    <t>29.16</t>
-  </si>
-  <si>
-    <t>29.23</t>
-  </si>
-  <si>
-    <t>23.35</t>
-  </si>
-  <si>
-    <t>18.31</t>
-  </si>
-  <si>
-    <t>27.40</t>
-  </si>
-  <si>
-    <t>6.74</t>
-  </si>
-  <si>
-    <t>12.82</t>
-  </si>
-  <si>
-    <t>12.79</t>
-  </si>
-  <si>
-    <t>12.86</t>
-  </si>
-  <si>
-    <t>3.20</t>
-  </si>
-  <si>
-    <t>2.81</t>
-  </si>
-  <si>
-    <t>3.04</t>
-  </si>
-  <si>
-    <t>8.49</t>
-  </si>
-  <si>
-    <t>14.15</t>
-  </si>
-  <si>
-    <t>18.52</t>
-  </si>
-  <si>
-    <t>11.39</t>
-  </si>
-  <si>
-    <t>39.41</t>
-  </si>
-  <si>
-    <t>29.35</t>
-  </si>
-  <si>
-    <t>4.22</t>
-  </si>
-  <si>
-    <t>5.08</t>
-  </si>
-  <si>
-    <t>64.37</t>
-  </si>
-  <si>
-    <t>38.26</t>
-  </si>
-  <si>
-    <t>21.56</t>
-  </si>
-  <si>
-    <t>4.19</t>
-  </si>
-  <si>
-    <t>46.52</t>
-  </si>
-  <si>
-    <t>75.50</t>
-  </si>
-  <si>
-    <t>20.83</t>
-  </si>
-  <si>
-    <t>16.13</t>
-  </si>
-  <si>
-    <t>11.59</t>
-  </si>
-  <si>
-    <t>32.27</t>
-  </si>
-  <si>
-    <t>4.71</t>
-  </si>
-  <si>
-    <t>21.53</t>
-  </si>
-  <si>
-    <t>23.79</t>
-  </si>
-  <si>
-    <t>16.58</t>
-  </si>
-  <si>
-    <t>107.17</t>
-  </si>
-  <si>
-    <t>24.20</t>
-  </si>
-  <si>
-    <t>9.66</t>
-  </si>
-  <si>
-    <t>47.21</t>
-  </si>
-  <si>
-    <t>14.39</t>
-  </si>
-  <si>
-    <t>9.72</t>
-  </si>
-  <si>
-    <t>12.42</t>
-  </si>
-  <si>
-    <t>45.73</t>
-  </si>
-  <si>
-    <t>5.88</t>
-  </si>
-  <si>
-    <t>6.24</t>
-  </si>
-  <si>
-    <t>22.02</t>
-  </si>
-  <si>
-    <t>31.84</t>
-  </si>
-  <si>
-    <t>31.35</t>
-  </si>
-  <si>
-    <t>10.04</t>
-  </si>
-  <si>
-    <t>9.23</t>
-  </si>
-  <si>
-    <t>14.18</t>
-  </si>
-  <si>
-    <t>5.89</t>
-  </si>
-  <si>
-    <t>10.67</t>
-  </si>
-  <si>
-    <t>17.07</t>
-  </si>
-  <si>
-    <t>6.09</t>
-  </si>
-  <si>
-    <t>8.74</t>
-  </si>
-  <si>
-    <t>8.98</t>
-  </si>
-  <si>
-    <t>29.37</t>
-  </si>
-  <si>
-    <t>18.70</t>
-  </si>
-  <si>
-    <t>5.94</t>
-  </si>
-  <si>
-    <t>27.14</t>
-  </si>
-  <si>
-    <t>55.23</t>
-  </si>
-  <si>
-    <t>4.23</t>
-  </si>
-  <si>
-    <t>40.77</t>
-  </si>
-  <si>
-    <t>15.79</t>
-  </si>
-  <si>
-    <t>9.56</t>
-  </si>
-  <si>
-    <t>13.36</t>
-  </si>
-  <si>
-    <t>43.55</t>
-  </si>
-  <si>
-    <t>9.45</t>
-  </si>
-  <si>
-    <t>17.68</t>
-  </si>
-  <si>
-    <t>7.76</t>
-  </si>
-  <si>
-    <t>16.30</t>
-  </si>
-  <si>
-    <t>10.93</t>
-  </si>
-  <si>
-    <t>41.30</t>
-  </si>
-  <si>
-    <t>19.14</t>
-  </si>
-  <si>
-    <t>23.04</t>
-  </si>
-  <si>
-    <t>13.07</t>
-  </si>
-  <si>
-    <t>39.59</t>
-  </si>
-  <si>
-    <t>27.08</t>
-  </si>
-  <si>
-    <t>1.00</t>
-  </si>
-  <si>
-    <t>0.80</t>
   </si>
   <si>
     <t>卖出</t>
@@ -2518,20 +1852,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K156"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2542,31 +1875,19 @@
         <v>222</v>
       </c>
       <c r="D1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E1" t="s">
         <v>226</v>
       </c>
       <c r="F1" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="G1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H1" t="s">
-        <v>376</v>
-      </c>
-      <c r="I1" t="s">
-        <v>511</v>
-      </c>
-      <c r="J1" t="s">
-        <v>636</v>
-      </c>
-      <c r="K1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2574,34 +1895,22 @@
         <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D2" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E2" t="s">
         <v>227</v>
       </c>
       <c r="F2" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="G2" t="s">
-        <v>260</v>
-      </c>
-      <c r="H2" t="s">
-        <v>377</v>
-      </c>
-      <c r="I2" t="s">
-        <v>512</v>
-      </c>
-      <c r="J2" t="s">
-        <v>254</v>
-      </c>
-      <c r="K2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2609,34 +1918,22 @@
         <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D3" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E3" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F3" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="G3" t="s">
-        <v>260</v>
-      </c>
-      <c r="H3" t="s">
-        <v>378</v>
-      </c>
-      <c r="I3" t="s">
-        <v>512</v>
-      </c>
-      <c r="J3" t="s">
-        <v>254</v>
-      </c>
-      <c r="K3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2644,34 +1941,22 @@
         <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D4" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F4" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="G4" t="s">
-        <v>260</v>
-      </c>
-      <c r="H4" t="s">
-        <v>379</v>
-      </c>
-      <c r="I4" t="s">
-        <v>512</v>
-      </c>
-      <c r="J4" t="s">
-        <v>254</v>
-      </c>
-      <c r="K4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2679,34 +1964,22 @@
         <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D5" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F5" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="G5" t="s">
-        <v>260</v>
-      </c>
-      <c r="H5" t="s">
-        <v>379</v>
-      </c>
-      <c r="I5" t="s">
-        <v>512</v>
-      </c>
-      <c r="J5" t="s">
-        <v>254</v>
-      </c>
-      <c r="K5" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -2714,34 +1987,22 @@
         <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D6" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E6" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F6" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="G6" t="s">
-        <v>261</v>
-      </c>
-      <c r="H6" t="s">
-        <v>380</v>
-      </c>
-      <c r="I6" t="s">
-        <v>513</v>
-      </c>
-      <c r="J6" t="s">
-        <v>233</v>
-      </c>
-      <c r="K6" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2749,34 +2010,22 @@
         <v>114</v>
       </c>
       <c r="C7" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D7" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F7" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="G7" t="s">
-        <v>262</v>
-      </c>
-      <c r="H7" t="s">
-        <v>381</v>
-      </c>
-      <c r="I7" t="s">
-        <v>514</v>
-      </c>
-      <c r="J7" t="s">
-        <v>234</v>
-      </c>
-      <c r="K7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2784,34 +2033,22 @@
         <v>115</v>
       </c>
       <c r="C8" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D8" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F8" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="G8" t="s">
-        <v>263</v>
-      </c>
-      <c r="H8" t="s">
-        <v>382</v>
-      </c>
-      <c r="I8" t="s">
-        <v>515</v>
-      </c>
-      <c r="J8" t="s">
-        <v>232</v>
-      </c>
-      <c r="K8" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -2819,34 +2056,22 @@
         <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D9" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E9" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F9" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="G9" t="s">
-        <v>264</v>
-      </c>
-      <c r="H9" t="s">
-        <v>383</v>
-      </c>
-      <c r="I9" t="s">
-        <v>516</v>
-      </c>
-      <c r="J9" t="s">
-        <v>232</v>
-      </c>
-      <c r="K9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -2854,34 +2079,22 @@
         <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D10" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E10" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F10" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="G10" t="s">
-        <v>265</v>
-      </c>
-      <c r="H10" t="s">
-        <v>384</v>
-      </c>
-      <c r="I10" t="s">
-        <v>517</v>
-      </c>
-      <c r="J10" t="s">
-        <v>235</v>
-      </c>
-      <c r="K10" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -2889,34 +2102,22 @@
         <v>118</v>
       </c>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D11" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E11" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F11" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="G11" t="s">
-        <v>266</v>
-      </c>
-      <c r="H11" t="s">
-        <v>385</v>
-      </c>
-      <c r="I11" t="s">
-        <v>518</v>
-      </c>
-      <c r="J11" t="s">
-        <v>234</v>
-      </c>
-      <c r="K11" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -2924,34 +2125,22 @@
         <v>119</v>
       </c>
       <c r="C12" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D12" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E12" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="F12" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="G12" t="s">
-        <v>267</v>
-      </c>
-      <c r="H12" t="s">
-        <v>386</v>
-      </c>
-      <c r="I12" t="s">
-        <v>519</v>
-      </c>
-      <c r="J12" t="s">
-        <v>253</v>
-      </c>
-      <c r="K12" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2959,34 +2148,22 @@
         <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D13" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E13" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="F13" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="G13" t="s">
-        <v>267</v>
-      </c>
-      <c r="H13" t="s">
-        <v>387</v>
-      </c>
-      <c r="I13" t="s">
-        <v>519</v>
-      </c>
-      <c r="J13" t="s">
-        <v>253</v>
-      </c>
-      <c r="K13" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -2994,34 +2171,22 @@
         <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D14" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E14" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F14" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="G14" t="s">
-        <v>268</v>
-      </c>
-      <c r="H14" t="s">
-        <v>388</v>
-      </c>
-      <c r="I14" t="s">
-        <v>520</v>
-      </c>
-      <c r="J14" t="s">
-        <v>234</v>
-      </c>
-      <c r="K14" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -3029,34 +2194,22 @@
         <v>121</v>
       </c>
       <c r="C15" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D15" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E15" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F15" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="G15" t="s">
-        <v>269</v>
-      </c>
-      <c r="H15" t="s">
-        <v>389</v>
-      </c>
-      <c r="I15" t="s">
-        <v>521</v>
-      </c>
-      <c r="J15" t="s">
-        <v>232</v>
-      </c>
-      <c r="K15" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -3064,34 +2217,22 @@
         <v>122</v>
       </c>
       <c r="C16" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D16" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E16" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F16" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="G16" t="s">
-        <v>270</v>
-      </c>
-      <c r="H16" t="s">
-        <v>390</v>
-      </c>
-      <c r="I16" t="s">
-        <v>522</v>
-      </c>
-      <c r="J16" t="s">
-        <v>238</v>
-      </c>
-      <c r="K16" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -3099,34 +2240,22 @@
         <v>123</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D17" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E17" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F17" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G17" t="s">
-        <v>271</v>
-      </c>
-      <c r="H17" t="s">
-        <v>391</v>
-      </c>
-      <c r="I17" t="s">
-        <v>523</v>
-      </c>
-      <c r="J17" t="s">
-        <v>232</v>
-      </c>
-      <c r="K17" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -3134,34 +2263,22 @@
         <v>124</v>
       </c>
       <c r="C18" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D18" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E18" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F18" t="s">
-        <v>232</v>
+        <v>269</v>
       </c>
       <c r="G18" t="s">
-        <v>272</v>
-      </c>
-      <c r="H18" t="s">
-        <v>392</v>
-      </c>
-      <c r="I18" t="s">
-        <v>524</v>
-      </c>
-      <c r="J18" t="s">
-        <v>232</v>
-      </c>
-      <c r="K18" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -3169,34 +2286,22 @@
         <v>125</v>
       </c>
       <c r="C19" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D19" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E19" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>239</v>
+        <v>270</v>
       </c>
       <c r="G19" t="s">
-        <v>273</v>
-      </c>
-      <c r="H19" t="s">
-        <v>393</v>
-      </c>
-      <c r="I19" t="s">
-        <v>525</v>
-      </c>
-      <c r="J19" t="s">
-        <v>239</v>
-      </c>
-      <c r="K19" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -3204,34 +2309,22 @@
         <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D20" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E20" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F20" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="G20" t="s">
-        <v>274</v>
-      </c>
-      <c r="H20" t="s">
-        <v>394</v>
-      </c>
-      <c r="I20" t="s">
-        <v>526</v>
-      </c>
-      <c r="J20" t="s">
-        <v>232</v>
-      </c>
-      <c r="K20" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -3239,34 +2332,22 @@
         <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D21" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E21" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F21" t="s">
-        <v>231</v>
+        <v>272</v>
       </c>
       <c r="G21" t="s">
-        <v>275</v>
-      </c>
-      <c r="H21" t="s">
-        <v>395</v>
-      </c>
-      <c r="I21" t="s">
-        <v>527</v>
-      </c>
-      <c r="J21" t="s">
-        <v>231</v>
-      </c>
-      <c r="K21" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -3274,34 +2355,22 @@
         <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D22" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E22" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F22" t="s">
-        <v>232</v>
+        <v>273</v>
       </c>
       <c r="G22" t="s">
-        <v>276</v>
-      </c>
-      <c r="H22" t="s">
-        <v>396</v>
-      </c>
-      <c r="I22" t="s">
-        <v>528</v>
-      </c>
-      <c r="J22" t="s">
-        <v>232</v>
-      </c>
-      <c r="K22" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -3309,34 +2378,22 @@
         <v>129</v>
       </c>
       <c r="C23" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D23" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E23" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F23" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="G23" t="s">
-        <v>277</v>
-      </c>
-      <c r="H23" t="s">
-        <v>397</v>
-      </c>
-      <c r="I23" t="s">
-        <v>529</v>
-      </c>
-      <c r="J23" t="s">
-        <v>232</v>
-      </c>
-      <c r="K23" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -3344,34 +2401,22 @@
         <v>130</v>
       </c>
       <c r="C24" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D24" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E24" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F24" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="G24" t="s">
-        <v>278</v>
-      </c>
-      <c r="H24" t="s">
-        <v>398</v>
-      </c>
-      <c r="I24" t="s">
-        <v>530</v>
-      </c>
-      <c r="J24" t="s">
-        <v>235</v>
-      </c>
-      <c r="K24" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -3379,34 +2424,22 @@
         <v>131</v>
       </c>
       <c r="C25" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D25" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E25" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F25" t="s">
-        <v>232</v>
+        <v>276</v>
       </c>
       <c r="G25" t="s">
-        <v>279</v>
-      </c>
-      <c r="H25" t="s">
-        <v>399</v>
-      </c>
-      <c r="I25" t="s">
-        <v>531</v>
-      </c>
-      <c r="J25" t="s">
-        <v>232</v>
-      </c>
-      <c r="K25" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -3414,34 +2447,22 @@
         <v>132</v>
       </c>
       <c r="C26" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D26" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E26" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F26" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="G26" t="s">
-        <v>280</v>
-      </c>
-      <c r="H26" t="s">
-        <v>400</v>
-      </c>
-      <c r="I26" t="s">
-        <v>532</v>
-      </c>
-      <c r="J26" t="s">
-        <v>231</v>
-      </c>
-      <c r="K26" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -3449,34 +2470,22 @@
         <v>132</v>
       </c>
       <c r="C27" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D27" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E27" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F27" t="s">
-        <v>232</v>
+        <v>277</v>
       </c>
       <c r="G27" t="s">
-        <v>280</v>
-      </c>
-      <c r="H27" t="s">
-        <v>400</v>
-      </c>
-      <c r="I27" t="s">
-        <v>532</v>
-      </c>
-      <c r="J27" t="s">
-        <v>231</v>
-      </c>
-      <c r="K27" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -3484,34 +2493,22 @@
         <v>133</v>
       </c>
       <c r="C28" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D28" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E28" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F28" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c r="G28" t="s">
-        <v>281</v>
-      </c>
-      <c r="H28" t="s">
-        <v>401</v>
-      </c>
-      <c r="I28" t="s">
-        <v>533</v>
-      </c>
-      <c r="J28" t="s">
-        <v>231</v>
-      </c>
-      <c r="K28" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -3519,34 +2516,22 @@
         <v>134</v>
       </c>
       <c r="C29" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D29" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E29" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F29" t="s">
-        <v>231</v>
+        <v>279</v>
       </c>
       <c r="G29" t="s">
-        <v>282</v>
-      </c>
-      <c r="H29" t="s">
-        <v>402</v>
-      </c>
-      <c r="I29" t="s">
-        <v>534</v>
-      </c>
-      <c r="J29" t="s">
-        <v>230</v>
-      </c>
-      <c r="K29" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -3554,34 +2539,22 @@
         <v>134</v>
       </c>
       <c r="C30" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D30" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E30" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F30" t="s">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="G30" t="s">
-        <v>282</v>
-      </c>
-      <c r="H30" t="s">
-        <v>403</v>
-      </c>
-      <c r="I30" t="s">
-        <v>534</v>
-      </c>
-      <c r="J30" t="s">
-        <v>230</v>
-      </c>
-      <c r="K30" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>24</v>
       </c>
@@ -3589,34 +2562,22 @@
         <v>135</v>
       </c>
       <c r="C31" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D31" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E31" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="G31" t="s">
-        <v>272</v>
-      </c>
-      <c r="H31" t="s">
-        <v>404</v>
-      </c>
-      <c r="I31" t="s">
-        <v>535</v>
-      </c>
-      <c r="J31" t="s">
-        <v>231</v>
-      </c>
-      <c r="K31" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>25</v>
       </c>
@@ -3624,34 +2585,22 @@
         <v>136</v>
       </c>
       <c r="C32" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D32" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E32" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="F32" t="s">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="G32" t="s">
-        <v>283</v>
-      </c>
-      <c r="H32" t="s">
-        <v>405</v>
-      </c>
-      <c r="I32" t="s">
-        <v>536</v>
-      </c>
-      <c r="J32" t="s">
-        <v>240</v>
-      </c>
-      <c r="K32" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>26</v>
       </c>
@@ -3659,34 +2608,22 @@
         <v>137</v>
       </c>
       <c r="C33" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D33" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E33" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="F33" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="G33" t="s">
-        <v>284</v>
-      </c>
-      <c r="H33" t="s">
-        <v>406</v>
-      </c>
-      <c r="I33" t="s">
-        <v>537</v>
-      </c>
-      <c r="J33" t="s">
-        <v>241</v>
-      </c>
-      <c r="K33" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>27</v>
       </c>
@@ -3694,34 +2631,22 @@
         <v>138</v>
       </c>
       <c r="C34" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D34" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E34" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F34" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="G34" t="s">
-        <v>285</v>
-      </c>
-      <c r="H34" t="s">
-        <v>407</v>
-      </c>
-      <c r="I34" t="s">
-        <v>538</v>
-      </c>
-      <c r="J34" t="s">
-        <v>242</v>
-      </c>
-      <c r="K34" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>28</v>
       </c>
@@ -3729,34 +2654,22 @@
         <v>139</v>
       </c>
       <c r="C35" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D35" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E35" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F35" t="s">
-        <v>234</v>
+        <v>283</v>
       </c>
       <c r="G35" t="s">
-        <v>286</v>
-      </c>
-      <c r="H35" t="s">
-        <v>408</v>
-      </c>
-      <c r="I35" t="s">
-        <v>539</v>
-      </c>
-      <c r="J35" t="s">
-        <v>234</v>
-      </c>
-      <c r="K35" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>29</v>
       </c>
@@ -3764,34 +2677,22 @@
         <v>140</v>
       </c>
       <c r="C36" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D36" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E36" t="s">
         <v>227</v>
       </c>
       <c r="F36" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="G36" t="s">
-        <v>287</v>
-      </c>
-      <c r="H36" t="s">
-        <v>409</v>
-      </c>
-      <c r="I36" t="s">
-        <v>540</v>
-      </c>
-      <c r="J36" t="s">
-        <v>230</v>
-      </c>
-      <c r="K36" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -3799,34 +2700,22 @@
         <v>141</v>
       </c>
       <c r="C37" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D37" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E37" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="F37" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
       <c r="G37" t="s">
-        <v>288</v>
-      </c>
-      <c r="H37" t="s">
-        <v>410</v>
-      </c>
-      <c r="I37" t="s">
-        <v>541</v>
-      </c>
-      <c r="J37" t="s">
-        <v>243</v>
-      </c>
-      <c r="K37" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -3834,34 +2723,22 @@
         <v>142</v>
       </c>
       <c r="C38" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D38" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E38" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="F38" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="G38" t="s">
-        <v>289</v>
-      </c>
-      <c r="H38" t="s">
-        <v>411</v>
-      </c>
-      <c r="I38" t="s">
-        <v>542</v>
-      </c>
-      <c r="J38" t="s">
-        <v>244</v>
-      </c>
-      <c r="K38" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>32</v>
       </c>
@@ -3869,34 +2746,22 @@
         <v>143</v>
       </c>
       <c r="C39" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D39" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E39" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="F39" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="G39" t="s">
-        <v>290</v>
-      </c>
-      <c r="H39" t="s">
-        <v>412</v>
-      </c>
-      <c r="I39" t="s">
-        <v>543</v>
-      </c>
-      <c r="J39" t="s">
-        <v>245</v>
-      </c>
-      <c r="K39" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>33</v>
       </c>
@@ -3904,34 +2769,22 @@
         <v>144</v>
       </c>
       <c r="C40" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D40" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E40" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F40" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="G40" t="s">
-        <v>291</v>
-      </c>
-      <c r="H40" t="s">
-        <v>413</v>
-      </c>
-      <c r="I40" t="s">
-        <v>544</v>
-      </c>
-      <c r="J40" t="s">
-        <v>234</v>
-      </c>
-      <c r="K40" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>34</v>
       </c>
@@ -3939,34 +2792,22 @@
         <v>145</v>
       </c>
       <c r="C41" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D41" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E41" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F41" t="s">
-        <v>232</v>
+        <v>289</v>
       </c>
       <c r="G41" t="s">
-        <v>292</v>
-      </c>
-      <c r="H41" t="s">
-        <v>414</v>
-      </c>
-      <c r="I41" t="s">
-        <v>545</v>
-      </c>
-      <c r="J41" t="s">
-        <v>232</v>
-      </c>
-      <c r="K41" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>35</v>
       </c>
@@ -3974,34 +2815,22 @@
         <v>146</v>
       </c>
       <c r="C42" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D42" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E42" t="s">
         <v>227</v>
       </c>
       <c r="F42" t="s">
-        <v>230</v>
+        <v>290</v>
       </c>
       <c r="G42" t="s">
-        <v>293</v>
-      </c>
-      <c r="H42" t="s">
-        <v>415</v>
-      </c>
-      <c r="I42" t="s">
-        <v>546</v>
-      </c>
-      <c r="J42" t="s">
-        <v>230</v>
-      </c>
-      <c r="K42" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>36</v>
       </c>
@@ -4009,34 +2838,22 @@
         <v>147</v>
       </c>
       <c r="C43" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D43" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E43" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="F43" t="s">
-        <v>246</v>
+        <v>291</v>
       </c>
       <c r="G43" t="s">
-        <v>294</v>
-      </c>
-      <c r="H43" t="s">
-        <v>416</v>
-      </c>
-      <c r="I43" t="s">
-        <v>547</v>
-      </c>
-      <c r="J43" t="s">
-        <v>246</v>
-      </c>
-      <c r="K43" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>37</v>
       </c>
@@ -4044,34 +2861,22 @@
         <v>148</v>
       </c>
       <c r="C44" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D44" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E44" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F44" t="s">
-        <v>242</v>
+        <v>292</v>
       </c>
       <c r="G44" t="s">
-        <v>295</v>
-      </c>
-      <c r="H44" t="s">
-        <v>417</v>
-      </c>
-      <c r="I44" t="s">
-        <v>548</v>
-      </c>
-      <c r="J44" t="s">
-        <v>242</v>
-      </c>
-      <c r="K44" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -4079,34 +2884,22 @@
         <v>149</v>
       </c>
       <c r="C45" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D45" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E45" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F45" t="s">
-        <v>232</v>
+        <v>293</v>
       </c>
       <c r="G45" t="s">
-        <v>296</v>
-      </c>
-      <c r="H45" t="s">
-        <v>418</v>
-      </c>
-      <c r="I45" t="s">
-        <v>549</v>
-      </c>
-      <c r="J45" t="s">
-        <v>232</v>
-      </c>
-      <c r="K45" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>39</v>
       </c>
@@ -4114,34 +2907,22 @@
         <v>150</v>
       </c>
       <c r="C46" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D46" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E46" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F46" t="s">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="G46" t="s">
-        <v>297</v>
-      </c>
-      <c r="H46" t="s">
-        <v>419</v>
-      </c>
-      <c r="I46" t="s">
-        <v>550</v>
-      </c>
-      <c r="J46" t="s">
-        <v>232</v>
-      </c>
-      <c r="K46" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>40</v>
       </c>
@@ -4149,34 +2930,22 @@
         <v>151</v>
       </c>
       <c r="C47" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D47" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E47" t="s">
         <v>227</v>
       </c>
       <c r="F47" t="s">
-        <v>230</v>
+        <v>295</v>
       </c>
       <c r="G47" t="s">
-        <v>298</v>
-      </c>
-      <c r="H47" t="s">
-        <v>420</v>
-      </c>
-      <c r="I47" t="s">
-        <v>551</v>
-      </c>
-      <c r="J47" t="s">
-        <v>250</v>
-      </c>
-      <c r="K47" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>40</v>
       </c>
@@ -4184,34 +2953,22 @@
         <v>151</v>
       </c>
       <c r="C48" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D48" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E48" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="F48" t="s">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="G48" t="s">
-        <v>298</v>
-      </c>
-      <c r="H48" t="s">
-        <v>421</v>
-      </c>
-      <c r="I48" t="s">
-        <v>551</v>
-      </c>
-      <c r="J48" t="s">
-        <v>250</v>
-      </c>
-      <c r="K48" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>41</v>
       </c>
@@ -4219,34 +2976,22 @@
         <v>152</v>
       </c>
       <c r="C49" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D49" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E49" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="F49" t="s">
-        <v>248</v>
+        <v>296</v>
       </c>
       <c r="G49" t="s">
-        <v>299</v>
-      </c>
-      <c r="H49" t="s">
-        <v>422</v>
-      </c>
-      <c r="I49" t="s">
-        <v>552</v>
-      </c>
-      <c r="J49" t="s">
-        <v>233</v>
-      </c>
-      <c r="K49" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>41</v>
       </c>
@@ -4254,34 +2999,22 @@
         <v>152</v>
       </c>
       <c r="C50" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D50" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E50" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="F50" t="s">
-        <v>249</v>
+        <v>296</v>
       </c>
       <c r="G50" t="s">
-        <v>299</v>
-      </c>
-      <c r="H50" t="s">
-        <v>423</v>
-      </c>
-      <c r="I50" t="s">
-        <v>552</v>
-      </c>
-      <c r="J50" t="s">
-        <v>233</v>
-      </c>
-      <c r="K50" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -4289,34 +3022,22 @@
         <v>153</v>
       </c>
       <c r="C51" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D51" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E51" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F51" t="s">
-        <v>232</v>
+        <v>297</v>
       </c>
       <c r="G51" t="s">
-        <v>300</v>
-      </c>
-      <c r="H51" t="s">
-        <v>424</v>
-      </c>
-      <c r="I51" t="s">
-        <v>553</v>
-      </c>
-      <c r="J51" t="s">
-        <v>232</v>
-      </c>
-      <c r="K51" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -4324,34 +3045,22 @@
         <v>154</v>
       </c>
       <c r="C52" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D52" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E52" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F52" t="s">
-        <v>232</v>
+        <v>298</v>
       </c>
       <c r="G52" t="s">
-        <v>301</v>
-      </c>
-      <c r="H52" t="s">
-        <v>425</v>
-      </c>
-      <c r="I52" t="s">
-        <v>554</v>
-      </c>
-      <c r="J52" t="s">
-        <v>232</v>
-      </c>
-      <c r="K52" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -4359,34 +3068,22 @@
         <v>155</v>
       </c>
       <c r="C53" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D53" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E53" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F53" t="s">
-        <v>242</v>
+        <v>299</v>
       </c>
       <c r="G53" t="s">
-        <v>302</v>
-      </c>
-      <c r="H53" t="s">
-        <v>426</v>
-      </c>
-      <c r="I53" t="s">
-        <v>555</v>
-      </c>
-      <c r="J53" t="s">
-        <v>242</v>
-      </c>
-      <c r="K53" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -4394,34 +3091,22 @@
         <v>151</v>
       </c>
       <c r="C54" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D54" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E54" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="F54" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G54" t="s">
-        <v>303</v>
-      </c>
-      <c r="H54" t="s">
-        <v>427</v>
-      </c>
-      <c r="I54" t="s">
-        <v>556</v>
-      </c>
-      <c r="J54" t="s">
-        <v>250</v>
-      </c>
-      <c r="K54" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>45</v>
       </c>
@@ -4429,34 +3114,22 @@
         <v>156</v>
       </c>
       <c r="C55" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D55" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E55" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F55" t="s">
-        <v>232</v>
+        <v>301</v>
       </c>
       <c r="G55" t="s">
-        <v>304</v>
-      </c>
-      <c r="H55" t="s">
-        <v>428</v>
-      </c>
-      <c r="I55" t="s">
-        <v>557</v>
-      </c>
-      <c r="J55" t="s">
-        <v>232</v>
-      </c>
-      <c r="K55" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>46</v>
       </c>
@@ -4464,34 +3137,22 @@
         <v>157</v>
       </c>
       <c r="C56" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D56" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E56" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F56" t="s">
-        <v>232</v>
+        <v>302</v>
       </c>
       <c r="G56" t="s">
-        <v>305</v>
-      </c>
-      <c r="H56" t="s">
-        <v>429</v>
-      </c>
-      <c r="I56" t="s">
-        <v>558</v>
-      </c>
-      <c r="J56" t="s">
-        <v>232</v>
-      </c>
-      <c r="K56" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>47</v>
       </c>
@@ -4499,34 +3160,22 @@
         <v>158</v>
       </c>
       <c r="C57" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D57" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E57" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F57" t="s">
-        <v>232</v>
+        <v>303</v>
       </c>
       <c r="G57" t="s">
-        <v>306</v>
-      </c>
-      <c r="H57" t="s">
-        <v>430</v>
-      </c>
-      <c r="I57" t="s">
-        <v>559</v>
-      </c>
-      <c r="J57" t="s">
-        <v>231</v>
-      </c>
-      <c r="K57" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>47</v>
       </c>
@@ -4534,34 +3183,22 @@
         <v>158</v>
       </c>
       <c r="C58" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D58" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E58" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F58" t="s">
-        <v>232</v>
+        <v>303</v>
       </c>
       <c r="G58" t="s">
-        <v>306</v>
-      </c>
-      <c r="H58" t="s">
-        <v>430</v>
-      </c>
-      <c r="I58" t="s">
-        <v>559</v>
-      </c>
-      <c r="J58" t="s">
-        <v>231</v>
-      </c>
-      <c r="K58" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -4569,34 +3206,22 @@
         <v>159</v>
       </c>
       <c r="C59" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D59" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E59" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="F59" t="s">
-        <v>251</v>
+        <v>304</v>
       </c>
       <c r="G59" t="s">
-        <v>307</v>
-      </c>
-      <c r="H59" t="s">
-        <v>431</v>
-      </c>
-      <c r="I59" t="s">
-        <v>560</v>
-      </c>
-      <c r="J59" t="s">
-        <v>241</v>
-      </c>
-      <c r="K59" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -4604,34 +3229,22 @@
         <v>159</v>
       </c>
       <c r="C60" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D60" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E60" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F60" t="s">
-        <v>242</v>
+        <v>305</v>
       </c>
       <c r="G60" t="s">
-        <v>308</v>
-      </c>
-      <c r="H60" t="s">
-        <v>432</v>
-      </c>
-      <c r="I60" t="s">
-        <v>560</v>
-      </c>
-      <c r="J60" t="s">
-        <v>241</v>
-      </c>
-      <c r="K60" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -4639,34 +3252,22 @@
         <v>160</v>
       </c>
       <c r="C61" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D61" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E61" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F61" t="s">
-        <v>242</v>
+        <v>306</v>
       </c>
       <c r="G61" t="s">
-        <v>309</v>
-      </c>
-      <c r="H61" t="s">
-        <v>401</v>
-      </c>
-      <c r="I61" t="s">
-        <v>561</v>
-      </c>
-      <c r="J61" t="s">
-        <v>242</v>
-      </c>
-      <c r="K61" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>50</v>
       </c>
@@ -4674,34 +3275,22 @@
         <v>161</v>
       </c>
       <c r="C62" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D62" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E62" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F62" t="s">
-        <v>232</v>
+        <v>307</v>
       </c>
       <c r="G62" t="s">
-        <v>310</v>
-      </c>
-      <c r="H62" t="s">
-        <v>433</v>
-      </c>
-      <c r="I62" t="s">
-        <v>562</v>
-      </c>
-      <c r="J62" t="s">
-        <v>232</v>
-      </c>
-      <c r="K62" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -4709,34 +3298,22 @@
         <v>162</v>
       </c>
       <c r="C63" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D63" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E63" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="F63" t="s">
-        <v>252</v>
+        <v>308</v>
       </c>
       <c r="G63" t="s">
-        <v>311</v>
-      </c>
-      <c r="H63" t="s">
-        <v>434</v>
-      </c>
-      <c r="I63" t="s">
-        <v>563</v>
-      </c>
-      <c r="J63" t="s">
-        <v>252</v>
-      </c>
-      <c r="K63" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>52</v>
       </c>
@@ -4744,34 +3321,22 @@
         <v>163</v>
       </c>
       <c r="C64" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D64" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E64" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F64" t="s">
-        <v>231</v>
+        <v>309</v>
       </c>
       <c r="G64" t="s">
-        <v>312</v>
-      </c>
-      <c r="H64" t="s">
-        <v>435</v>
-      </c>
-      <c r="I64" t="s">
-        <v>564</v>
-      </c>
-      <c r="J64" t="s">
-        <v>231</v>
-      </c>
-      <c r="K64" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -4779,34 +3344,22 @@
         <v>164</v>
       </c>
       <c r="C65" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D65" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E65" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="F65" t="s">
-        <v>248</v>
+        <v>310</v>
       </c>
       <c r="G65" t="s">
-        <v>313</v>
-      </c>
-      <c r="H65" t="s">
-        <v>436</v>
-      </c>
-      <c r="I65" t="s">
-        <v>565</v>
-      </c>
-      <c r="J65" t="s">
-        <v>248</v>
-      </c>
-      <c r="K65" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>54</v>
       </c>
@@ -4814,34 +3367,22 @@
         <v>165</v>
       </c>
       <c r="C66" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D66" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E66" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F66" t="s">
-        <v>231</v>
+        <v>311</v>
       </c>
       <c r="G66" t="s">
-        <v>314</v>
-      </c>
-      <c r="H66" t="s">
-        <v>437</v>
-      </c>
-      <c r="I66" t="s">
-        <v>566</v>
-      </c>
-      <c r="J66" t="s">
-        <v>231</v>
-      </c>
-      <c r="K66" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>55</v>
       </c>
@@ -4849,34 +3390,22 @@
         <v>166</v>
       </c>
       <c r="C67" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D67" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E67" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="F67" t="s">
-        <v>241</v>
+        <v>312</v>
       </c>
       <c r="G67" t="s">
-        <v>315</v>
-      </c>
-      <c r="H67" t="s">
-        <v>438</v>
-      </c>
-      <c r="I67" t="s">
-        <v>567</v>
-      </c>
-      <c r="J67" t="s">
-        <v>241</v>
-      </c>
-      <c r="K67" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>56</v>
       </c>
@@ -4884,34 +3413,22 @@
         <v>167</v>
       </c>
       <c r="C68" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D68" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E68" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="F68" t="s">
-        <v>253</v>
+        <v>313</v>
       </c>
       <c r="G68" t="s">
-        <v>316</v>
-      </c>
-      <c r="H68" t="s">
-        <v>439</v>
-      </c>
-      <c r="I68" t="s">
-        <v>568</v>
-      </c>
-      <c r="J68" t="s">
-        <v>253</v>
-      </c>
-      <c r="K68" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>57</v>
       </c>
@@ -4919,34 +3436,22 @@
         <v>168</v>
       </c>
       <c r="C69" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D69" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E69" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="F69" t="s">
-        <v>235</v>
+        <v>314</v>
       </c>
       <c r="G69" t="s">
-        <v>317</v>
-      </c>
-      <c r="H69" t="s">
-        <v>440</v>
-      </c>
-      <c r="I69" t="s">
-        <v>569</v>
-      </c>
-      <c r="J69" t="s">
-        <v>235</v>
-      </c>
-      <c r="K69" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>58</v>
       </c>
@@ -4954,34 +3459,22 @@
         <v>169</v>
       </c>
       <c r="C70" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D70" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E70" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F70" t="s">
-        <v>232</v>
+        <v>315</v>
       </c>
       <c r="G70" t="s">
-        <v>318</v>
-      </c>
-      <c r="H70" t="s">
-        <v>441</v>
-      </c>
-      <c r="I70" t="s">
-        <v>570</v>
-      </c>
-      <c r="J70" t="s">
-        <v>232</v>
-      </c>
-      <c r="K70" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>59</v>
       </c>
@@ -4989,34 +3482,22 @@
         <v>170</v>
       </c>
       <c r="C71" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D71" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E71" t="s">
         <v>227</v>
       </c>
       <c r="F71" t="s">
-        <v>230</v>
+        <v>316</v>
       </c>
       <c r="G71" t="s">
-        <v>319</v>
-      </c>
-      <c r="H71" t="s">
-        <v>442</v>
-      </c>
-      <c r="I71" t="s">
-        <v>571</v>
-      </c>
-      <c r="J71" t="s">
-        <v>230</v>
-      </c>
-      <c r="K71" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>60</v>
       </c>
@@ -5024,34 +3505,22 @@
         <v>171</v>
       </c>
       <c r="C72" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D72" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E72" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F72" t="s">
-        <v>232</v>
+        <v>317</v>
       </c>
       <c r="G72" t="s">
-        <v>320</v>
-      </c>
-      <c r="H72" t="s">
-        <v>443</v>
-      </c>
-      <c r="I72" t="s">
-        <v>572</v>
-      </c>
-      <c r="J72" t="s">
-        <v>232</v>
-      </c>
-      <c r="K72" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>61</v>
       </c>
@@ -5059,34 +3528,22 @@
         <v>172</v>
       </c>
       <c r="C73" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D73" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E73" t="s">
         <v>227</v>
       </c>
       <c r="F73" t="s">
-        <v>230</v>
+        <v>318</v>
       </c>
       <c r="G73" t="s">
-        <v>321</v>
-      </c>
-      <c r="H73" t="s">
-        <v>444</v>
-      </c>
-      <c r="I73" t="s">
-        <v>573</v>
-      </c>
-      <c r="J73" t="s">
-        <v>230</v>
-      </c>
-      <c r="K73" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>62</v>
       </c>
@@ -5094,34 +3551,22 @@
         <v>173</v>
       </c>
       <c r="C74" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D74" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E74" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F74" t="s">
-        <v>232</v>
+        <v>319</v>
       </c>
       <c r="G74" t="s">
-        <v>322</v>
-      </c>
-      <c r="H74" t="s">
-        <v>445</v>
-      </c>
-      <c r="I74" t="s">
-        <v>574</v>
-      </c>
-      <c r="J74" t="s">
-        <v>232</v>
-      </c>
-      <c r="K74" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>63</v>
       </c>
@@ -5129,34 +3574,22 @@
         <v>174</v>
       </c>
       <c r="C75" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D75" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E75" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="F75" t="s">
-        <v>254</v>
+        <v>320</v>
       </c>
       <c r="G75" t="s">
-        <v>323</v>
-      </c>
-      <c r="H75" t="s">
-        <v>446</v>
-      </c>
-      <c r="I75" t="s">
-        <v>575</v>
-      </c>
-      <c r="J75" t="s">
-        <v>249</v>
-      </c>
-      <c r="K75" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>63</v>
       </c>
@@ -5164,34 +3597,22 @@
         <v>174</v>
       </c>
       <c r="C76" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D76" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E76" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="F76" t="s">
-        <v>251</v>
+        <v>320</v>
       </c>
       <c r="G76" t="s">
-        <v>323</v>
-      </c>
-      <c r="H76" t="s">
-        <v>447</v>
-      </c>
-      <c r="I76" t="s">
-        <v>575</v>
-      </c>
-      <c r="J76" t="s">
-        <v>249</v>
-      </c>
-      <c r="K76" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>64</v>
       </c>
@@ -5199,34 +3620,22 @@
         <v>175</v>
       </c>
       <c r="C77" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D77" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E77" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="F77" t="s">
-        <v>251</v>
+        <v>321</v>
       </c>
       <c r="G77" t="s">
-        <v>324</v>
-      </c>
-      <c r="H77" t="s">
-        <v>448</v>
-      </c>
-      <c r="I77" t="s">
-        <v>576</v>
-      </c>
-      <c r="J77" t="s">
-        <v>251</v>
-      </c>
-      <c r="K77" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>65</v>
       </c>
@@ -5234,34 +3643,22 @@
         <v>176</v>
       </c>
       <c r="C78" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D78" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E78" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F78" t="s">
-        <v>232</v>
+        <v>322</v>
       </c>
       <c r="G78" t="s">
-        <v>325</v>
-      </c>
-      <c r="H78" t="s">
-        <v>449</v>
-      </c>
-      <c r="I78" t="s">
-        <v>577</v>
-      </c>
-      <c r="J78" t="s">
-        <v>232</v>
-      </c>
-      <c r="K78" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>66</v>
       </c>
@@ -5269,34 +3666,22 @@
         <v>177</v>
       </c>
       <c r="C79" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D79" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E79" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F79" t="s">
-        <v>232</v>
+        <v>323</v>
       </c>
       <c r="G79" t="s">
-        <v>326</v>
-      </c>
-      <c r="H79" t="s">
-        <v>450</v>
-      </c>
-      <c r="I79" t="s">
-        <v>578</v>
-      </c>
-      <c r="J79" t="s">
-        <v>232</v>
-      </c>
-      <c r="K79" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>67</v>
       </c>
@@ -5304,34 +3689,22 @@
         <v>178</v>
       </c>
       <c r="C80" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D80" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E80" t="s">
         <v>227</v>
       </c>
       <c r="F80" t="s">
-        <v>230</v>
+        <v>324</v>
       </c>
       <c r="G80" t="s">
-        <v>327</v>
-      </c>
-      <c r="H80" t="s">
-        <v>451</v>
-      </c>
-      <c r="I80" t="s">
-        <v>579</v>
-      </c>
-      <c r="J80" t="s">
-        <v>230</v>
-      </c>
-      <c r="K80" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>68</v>
       </c>
@@ -5339,34 +3712,22 @@
         <v>179</v>
       </c>
       <c r="C81" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D81" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E81" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="F81" t="s">
-        <v>254</v>
+        <v>325</v>
       </c>
       <c r="G81" t="s">
-        <v>328</v>
-      </c>
-      <c r="H81" t="s">
-        <v>452</v>
-      </c>
-      <c r="I81" t="s">
-        <v>580</v>
-      </c>
-      <c r="J81" t="s">
-        <v>254</v>
-      </c>
-      <c r="K81" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>69</v>
       </c>
@@ -5374,34 +3735,22 @@
         <v>180</v>
       </c>
       <c r="C82" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D82" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E82" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F82" t="s">
-        <v>242</v>
+        <v>326</v>
       </c>
       <c r="G82" t="s">
-        <v>329</v>
-      </c>
-      <c r="H82" t="s">
-        <v>453</v>
-      </c>
-      <c r="I82" t="s">
-        <v>581</v>
-      </c>
-      <c r="J82" t="s">
-        <v>242</v>
-      </c>
-      <c r="K82" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>70</v>
       </c>
@@ -5409,34 +3758,22 @@
         <v>181</v>
       </c>
       <c r="C83" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D83" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E83" t="s">
         <v>227</v>
       </c>
       <c r="F83" t="s">
-        <v>230</v>
+        <v>327</v>
       </c>
       <c r="G83" t="s">
-        <v>330</v>
-      </c>
-      <c r="H83" t="s">
-        <v>454</v>
-      </c>
-      <c r="I83" t="s">
-        <v>582</v>
-      </c>
-      <c r="J83" t="s">
-        <v>230</v>
-      </c>
-      <c r="K83" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>71</v>
       </c>
@@ -5444,34 +3781,22 @@
         <v>182</v>
       </c>
       <c r="C84" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D84" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E84" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="F84" t="s">
-        <v>255</v>
+        <v>328</v>
       </c>
       <c r="G84" t="s">
-        <v>331</v>
-      </c>
-      <c r="H84" t="s">
-        <v>455</v>
-      </c>
-      <c r="I84" t="s">
-        <v>583</v>
-      </c>
-      <c r="J84" t="s">
-        <v>255</v>
-      </c>
-      <c r="K84" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>72</v>
       </c>
@@ -5479,34 +3804,22 @@
         <v>183</v>
       </c>
       <c r="C85" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D85" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E85" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F85" t="s">
-        <v>232</v>
+        <v>329</v>
       </c>
       <c r="G85" t="s">
-        <v>332</v>
-      </c>
-      <c r="H85" t="s">
-        <v>456</v>
-      </c>
-      <c r="I85" t="s">
-        <v>584</v>
-      </c>
-      <c r="J85" t="s">
-        <v>232</v>
-      </c>
-      <c r="K85" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>73</v>
       </c>
@@ -5514,34 +3827,22 @@
         <v>184</v>
       </c>
       <c r="C86" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D86" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E86" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="F86" t="s">
-        <v>256</v>
+        <v>330</v>
       </c>
       <c r="G86" t="s">
-        <v>333</v>
-      </c>
-      <c r="H86" t="s">
-        <v>457</v>
-      </c>
-      <c r="I86" t="s">
-        <v>585</v>
-      </c>
-      <c r="J86" t="s">
-        <v>240</v>
-      </c>
-      <c r="K86" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>73</v>
       </c>
@@ -5549,34 +3850,22 @@
         <v>184</v>
       </c>
       <c r="C87" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D87" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E87" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F87" t="s">
-        <v>232</v>
+        <v>330</v>
       </c>
       <c r="G87" t="s">
-        <v>333</v>
-      </c>
-      <c r="H87" t="s">
-        <v>458</v>
-      </c>
-      <c r="I87" t="s">
-        <v>585</v>
-      </c>
-      <c r="J87" t="s">
-        <v>240</v>
-      </c>
-      <c r="K87" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>74</v>
       </c>
@@ -5584,34 +3873,22 @@
         <v>185</v>
       </c>
       <c r="C88" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D88" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E88" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="F88" t="s">
-        <v>257</v>
+        <v>331</v>
       </c>
       <c r="G88" t="s">
-        <v>334</v>
-      </c>
-      <c r="H88" t="s">
-        <v>459</v>
-      </c>
-      <c r="I88" t="s">
-        <v>586</v>
-      </c>
-      <c r="J88" t="s">
-        <v>240</v>
-      </c>
-      <c r="K88" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>74</v>
       </c>
@@ -5619,34 +3896,22 @@
         <v>185</v>
       </c>
       <c r="C89" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D89" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E89" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="F89" t="s">
-        <v>258</v>
+        <v>331</v>
       </c>
       <c r="G89" t="s">
-        <v>334</v>
-      </c>
-      <c r="H89" t="s">
-        <v>460</v>
-      </c>
-      <c r="I89" t="s">
-        <v>586</v>
-      </c>
-      <c r="J89" t="s">
-        <v>240</v>
-      </c>
-      <c r="K89" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>75</v>
       </c>
@@ -5654,34 +3919,22 @@
         <v>186</v>
       </c>
       <c r="C90" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D90" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E90" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F90" t="s">
-        <v>231</v>
+        <v>332</v>
       </c>
       <c r="G90" t="s">
-        <v>335</v>
-      </c>
-      <c r="H90" t="s">
-        <v>461</v>
-      </c>
-      <c r="I90" t="s">
-        <v>587</v>
-      </c>
-      <c r="J90" t="s">
-        <v>231</v>
-      </c>
-      <c r="K90" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>76</v>
       </c>
@@ -5689,34 +3942,22 @@
         <v>187</v>
       </c>
       <c r="C91" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D91" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E91" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F91" t="s">
-        <v>232</v>
+        <v>333</v>
       </c>
       <c r="G91" t="s">
-        <v>336</v>
-      </c>
-      <c r="H91" t="s">
-        <v>462</v>
-      </c>
-      <c r="I91" t="s">
-        <v>588</v>
-      </c>
-      <c r="J91" t="s">
-        <v>232</v>
-      </c>
-      <c r="K91" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>77</v>
       </c>
@@ -5724,34 +3965,22 @@
         <v>188</v>
       </c>
       <c r="C92" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D92" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E92" t="s">
         <v>227</v>
       </c>
       <c r="F92" t="s">
-        <v>230</v>
+        <v>334</v>
       </c>
       <c r="G92" t="s">
-        <v>337</v>
-      </c>
-      <c r="H92" t="s">
-        <v>463</v>
-      </c>
-      <c r="I92" t="s">
-        <v>589</v>
-      </c>
-      <c r="J92" t="s">
-        <v>230</v>
-      </c>
-      <c r="K92" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>78</v>
       </c>
@@ -5759,34 +3988,22 @@
         <v>189</v>
       </c>
       <c r="C93" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D93" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E93" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="F93" t="s">
-        <v>254</v>
+        <v>335</v>
       </c>
       <c r="G93" t="s">
-        <v>338</v>
-      </c>
-      <c r="H93" t="s">
-        <v>464</v>
-      </c>
-      <c r="I93" t="s">
-        <v>590</v>
-      </c>
-      <c r="J93" t="s">
-        <v>254</v>
-      </c>
-      <c r="K93" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>79</v>
       </c>
@@ -5794,34 +4011,22 @@
         <v>190</v>
       </c>
       <c r="C94" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D94" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E94" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="F94" t="s">
-        <v>251</v>
+        <v>336</v>
       </c>
       <c r="G94" t="s">
-        <v>339</v>
-      </c>
-      <c r="H94" t="s">
-        <v>465</v>
-      </c>
-      <c r="I94" t="s">
-        <v>591</v>
-      </c>
-      <c r="J94" t="s">
-        <v>251</v>
-      </c>
-      <c r="K94" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>80</v>
       </c>
@@ -5829,34 +4034,22 @@
         <v>191</v>
       </c>
       <c r="C95" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D95" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E95" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F95" t="s">
-        <v>234</v>
+        <v>337</v>
       </c>
       <c r="G95" t="s">
-        <v>340</v>
-      </c>
-      <c r="H95" t="s">
-        <v>466</v>
-      </c>
-      <c r="I95" t="s">
-        <v>592</v>
-      </c>
-      <c r="J95" t="s">
-        <v>234</v>
-      </c>
-      <c r="K95" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>25</v>
       </c>
@@ -5864,34 +4057,22 @@
         <v>136</v>
       </c>
       <c r="C96" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D96" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E96" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F96" t="s">
-        <v>231</v>
+        <v>338</v>
       </c>
       <c r="G96" t="s">
-        <v>341</v>
-      </c>
-      <c r="H96" t="s">
-        <v>467</v>
-      </c>
-      <c r="I96" t="s">
-        <v>593</v>
-      </c>
-      <c r="J96" t="s">
-        <v>252</v>
-      </c>
-      <c r="K96" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>25</v>
       </c>
@@ -5899,34 +4080,22 @@
         <v>136</v>
       </c>
       <c r="C97" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D97" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E97" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F97" t="s">
-        <v>231</v>
+        <v>338</v>
       </c>
       <c r="G97" t="s">
-        <v>341</v>
-      </c>
-      <c r="H97" t="s">
-        <v>467</v>
-      </c>
-      <c r="I97" t="s">
-        <v>594</v>
-      </c>
-      <c r="J97" t="s">
-        <v>252</v>
-      </c>
-      <c r="K97" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>25</v>
       </c>
@@ -5934,34 +4103,22 @@
         <v>136</v>
       </c>
       <c r="C98" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D98" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E98" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F98" t="s">
-        <v>232</v>
+        <v>338</v>
       </c>
       <c r="G98" t="s">
-        <v>341</v>
-      </c>
-      <c r="H98" t="s">
-        <v>468</v>
-      </c>
-      <c r="I98" t="s">
-        <v>595</v>
-      </c>
-      <c r="J98" t="s">
-        <v>252</v>
-      </c>
-      <c r="K98" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>81</v>
       </c>
@@ -5969,34 +4126,22 @@
         <v>192</v>
       </c>
       <c r="C99" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D99" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E99" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F99" t="s">
-        <v>232</v>
+        <v>339</v>
       </c>
       <c r="G99" t="s">
-        <v>342</v>
-      </c>
-      <c r="H99" t="s">
-        <v>469</v>
-      </c>
-      <c r="I99" t="s">
-        <v>596</v>
-      </c>
-      <c r="J99" t="s">
-        <v>242</v>
-      </c>
-      <c r="K99" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>81</v>
       </c>
@@ -6004,34 +4149,22 @@
         <v>192</v>
       </c>
       <c r="C100" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D100" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E100" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F100" t="s">
-        <v>232</v>
+        <v>339</v>
       </c>
       <c r="G100" t="s">
-        <v>342</v>
-      </c>
-      <c r="H100" t="s">
-        <v>469</v>
-      </c>
-      <c r="I100" t="s">
-        <v>596</v>
-      </c>
-      <c r="J100" t="s">
-        <v>242</v>
-      </c>
-      <c r="K100" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>81</v>
       </c>
@@ -6039,34 +4172,22 @@
         <v>192</v>
       </c>
       <c r="C101" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D101" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E101" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F101" t="s">
-        <v>232</v>
+        <v>339</v>
       </c>
       <c r="G101" t="s">
-        <v>342</v>
-      </c>
-      <c r="H101" t="s">
-        <v>469</v>
-      </c>
-      <c r="I101" t="s">
-        <v>596</v>
-      </c>
-      <c r="J101" t="s">
-        <v>242</v>
-      </c>
-      <c r="K101" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>81</v>
       </c>
@@ -6074,34 +4195,22 @@
         <v>192</v>
       </c>
       <c r="C102" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D102" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E102" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F102" t="s">
-        <v>232</v>
+        <v>339</v>
       </c>
       <c r="G102" t="s">
-        <v>342</v>
-      </c>
-      <c r="H102" t="s">
-        <v>469</v>
-      </c>
-      <c r="I102" t="s">
-        <v>596</v>
-      </c>
-      <c r="J102" t="s">
-        <v>242</v>
-      </c>
-      <c r="K102" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>25</v>
       </c>
@@ -6109,34 +4218,22 @@
         <v>136</v>
       </c>
       <c r="C103" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D103" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E103" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="F103" t="s">
-        <v>248</v>
+        <v>338</v>
       </c>
       <c r="G103" t="s">
-        <v>341</v>
-      </c>
-      <c r="H103" t="s">
-        <v>470</v>
-      </c>
-      <c r="I103" t="s">
-        <v>597</v>
-      </c>
-      <c r="J103" t="s">
-        <v>252</v>
-      </c>
-      <c r="K103" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>82</v>
       </c>
@@ -6144,34 +4241,22 @@
         <v>193</v>
       </c>
       <c r="C104" t="s">
-        <v>224</v>
+        <v>498</v>
       </c>
       <c r="D104" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E104" t="s">
         <v>227</v>
       </c>
       <c r="F104" t="s">
-        <v>230</v>
+        <v>340</v>
       </c>
       <c r="G104" t="s">
-        <v>343</v>
-      </c>
-      <c r="H104" t="s">
-        <v>375</v>
-      </c>
-      <c r="I104" t="s">
-        <v>598</v>
-      </c>
-      <c r="J104" t="s">
-        <v>230</v>
-      </c>
-      <c r="K104" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>83</v>
       </c>
@@ -6179,34 +4264,22 @@
         <v>194</v>
       </c>
       <c r="C105" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D105" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E105" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F105" t="s">
-        <v>232</v>
+        <v>341</v>
       </c>
       <c r="G105" t="s">
-        <v>344</v>
-      </c>
-      <c r="H105" t="s">
-        <v>471</v>
-      </c>
-      <c r="I105" t="s">
-        <v>599</v>
-      </c>
-      <c r="J105" t="s">
-        <v>230</v>
-      </c>
-      <c r="K105" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>83</v>
       </c>
@@ -6214,34 +4287,22 @@
         <v>194</v>
       </c>
       <c r="C106" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D106" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E106" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F106" t="s">
-        <v>231</v>
+        <v>341</v>
       </c>
       <c r="G106" t="s">
-        <v>344</v>
-      </c>
-      <c r="H106" t="s">
-        <v>472</v>
-      </c>
-      <c r="I106" t="s">
-        <v>599</v>
-      </c>
-      <c r="J106" t="s">
-        <v>230</v>
-      </c>
-      <c r="K106" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>83</v>
       </c>
@@ -6249,34 +4310,22 @@
         <v>194</v>
       </c>
       <c r="C107" t="s">
-        <v>224</v>
+        <v>498</v>
       </c>
       <c r="D107" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E107" t="s">
         <v>227</v>
       </c>
       <c r="F107" t="s">
-        <v>230</v>
+        <v>342</v>
       </c>
       <c r="G107" t="s">
-        <v>345</v>
-      </c>
-      <c r="H107" t="s">
-        <v>375</v>
-      </c>
-      <c r="I107" t="s">
-        <v>600</v>
-      </c>
-      <c r="J107" t="s">
-        <v>230</v>
-      </c>
-      <c r="K107" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>84</v>
       </c>
@@ -6284,34 +4333,22 @@
         <v>195</v>
       </c>
       <c r="C108" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D108" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E108" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="F108" t="s">
-        <v>254</v>
+        <v>291</v>
       </c>
       <c r="G108" t="s">
-        <v>294</v>
-      </c>
-      <c r="H108" t="s">
-        <v>473</v>
-      </c>
-      <c r="I108" t="s">
-        <v>601</v>
-      </c>
-      <c r="J108" t="s">
-        <v>254</v>
-      </c>
-      <c r="K108" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>85</v>
       </c>
@@ -6319,34 +4356,22 @@
         <v>196</v>
       </c>
       <c r="C109" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D109" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E109" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F109" t="s">
-        <v>242</v>
+        <v>343</v>
       </c>
       <c r="G109" t="s">
-        <v>346</v>
-      </c>
-      <c r="H109" t="s">
-        <v>474</v>
-      </c>
-      <c r="I109" t="s">
-        <v>602</v>
-      </c>
-      <c r="J109" t="s">
-        <v>242</v>
-      </c>
-      <c r="K109" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>86</v>
       </c>
@@ -6354,34 +4379,22 @@
         <v>197</v>
       </c>
       <c r="C110" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D110" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E110" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F110" t="s">
-        <v>234</v>
+        <v>344</v>
       </c>
       <c r="G110" t="s">
-        <v>347</v>
-      </c>
-      <c r="H110" t="s">
-        <v>432</v>
-      </c>
-      <c r="I110" t="s">
-        <v>603</v>
-      </c>
-      <c r="J110" t="s">
-        <v>234</v>
-      </c>
-      <c r="K110" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>87</v>
       </c>
@@ -6389,34 +4402,22 @@
         <v>198</v>
       </c>
       <c r="C111" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D111" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E111" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="F111" t="s">
-        <v>249</v>
+        <v>345</v>
       </c>
       <c r="G111" t="s">
-        <v>348</v>
-      </c>
-      <c r="H111" t="s">
-        <v>475</v>
-      </c>
-      <c r="I111" t="s">
-        <v>604</v>
-      </c>
-      <c r="J111" t="s">
-        <v>252</v>
-      </c>
-      <c r="K111" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>87</v>
       </c>
@@ -6424,34 +4425,22 @@
         <v>198</v>
       </c>
       <c r="C112" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D112" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E112" t="s">
         <v>227</v>
       </c>
       <c r="F112" t="s">
-        <v>230</v>
+        <v>345</v>
       </c>
       <c r="G112" t="s">
-        <v>348</v>
-      </c>
-      <c r="H112" t="s">
-        <v>476</v>
-      </c>
-      <c r="I112" t="s">
-        <v>604</v>
-      </c>
-      <c r="J112" t="s">
-        <v>252</v>
-      </c>
-      <c r="K112" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>88</v>
       </c>
@@ -6459,34 +4448,22 @@
         <v>199</v>
       </c>
       <c r="C113" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D113" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E113" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F113" t="s">
-        <v>242</v>
+        <v>346</v>
       </c>
       <c r="G113" t="s">
-        <v>349</v>
-      </c>
-      <c r="H113" t="s">
-        <v>477</v>
-      </c>
-      <c r="I113" t="s">
-        <v>605</v>
-      </c>
-      <c r="J113" t="s">
-        <v>242</v>
-      </c>
-      <c r="K113" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>89</v>
       </c>
@@ -6494,34 +4471,22 @@
         <v>200</v>
       </c>
       <c r="C114" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D114" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E114" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F114" t="s">
-        <v>234</v>
+        <v>347</v>
       </c>
       <c r="G114" t="s">
-        <v>350</v>
-      </c>
-      <c r="H114" t="s">
-        <v>478</v>
-      </c>
-      <c r="I114" t="s">
-        <v>606</v>
-      </c>
-      <c r="J114" t="s">
-        <v>234</v>
-      </c>
-      <c r="K114" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>90</v>
       </c>
@@ -6529,34 +4494,22 @@
         <v>201</v>
       </c>
       <c r="C115" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D115" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F115" t="s">
-        <v>232</v>
+        <v>348</v>
       </c>
       <c r="G115" t="s">
-        <v>351</v>
-      </c>
-      <c r="H115" t="s">
-        <v>479</v>
-      </c>
-      <c r="I115" t="s">
-        <v>607</v>
-      </c>
-      <c r="J115" t="s">
-        <v>242</v>
-      </c>
-      <c r="K115" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>90</v>
       </c>
@@ -6564,34 +4517,22 @@
         <v>201</v>
       </c>
       <c r="C116" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D116" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F116" t="s">
-        <v>232</v>
+        <v>348</v>
       </c>
       <c r="G116" t="s">
-        <v>351</v>
-      </c>
-      <c r="H116" t="s">
-        <v>479</v>
-      </c>
-      <c r="I116" t="s">
-        <v>608</v>
-      </c>
-      <c r="J116" t="s">
-        <v>242</v>
-      </c>
-      <c r="K116" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>90</v>
       </c>
@@ -6599,34 +4540,22 @@
         <v>201</v>
       </c>
       <c r="C117" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D117" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>348</v>
       </c>
       <c r="G117" t="s">
-        <v>351</v>
-      </c>
-      <c r="H117" t="s">
-        <v>479</v>
-      </c>
-      <c r="I117" t="s">
-        <v>608</v>
-      </c>
-      <c r="J117" t="s">
-        <v>242</v>
-      </c>
-      <c r="K117" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>90</v>
       </c>
@@ -6634,34 +4563,22 @@
         <v>201</v>
       </c>
       <c r="C118" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D118" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E118" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>348</v>
       </c>
       <c r="G118" t="s">
-        <v>351</v>
-      </c>
-      <c r="H118" t="s">
-        <v>479</v>
-      </c>
-      <c r="I118" t="s">
-        <v>609</v>
-      </c>
-      <c r="J118" t="s">
-        <v>242</v>
-      </c>
-      <c r="K118" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>91</v>
       </c>
@@ -6669,34 +4586,22 @@
         <v>202</v>
       </c>
       <c r="C119" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D119" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="F119" t="s">
-        <v>246</v>
+        <v>349</v>
       </c>
       <c r="G119" t="s">
-        <v>352</v>
-      </c>
-      <c r="H119" t="s">
-        <v>480</v>
-      </c>
-      <c r="I119" t="s">
-        <v>610</v>
-      </c>
-      <c r="J119" t="s">
-        <v>246</v>
-      </c>
-      <c r="K119" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>33</v>
       </c>
@@ -6704,34 +4609,22 @@
         <v>144</v>
       </c>
       <c r="C120" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D120" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E120" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="F120" t="s">
-        <v>241</v>
+        <v>350</v>
       </c>
       <c r="G120" t="s">
-        <v>353</v>
-      </c>
-      <c r="H120" t="s">
-        <v>481</v>
-      </c>
-      <c r="I120" t="s">
-        <v>611</v>
-      </c>
-      <c r="J120" t="s">
-        <v>241</v>
-      </c>
-      <c r="K120" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>39</v>
       </c>
@@ -6739,34 +4632,22 @@
         <v>150</v>
       </c>
       <c r="C121" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D121" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E121" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F121" t="s">
-        <v>232</v>
+        <v>351</v>
       </c>
       <c r="G121" t="s">
-        <v>354</v>
-      </c>
-      <c r="H121" t="s">
-        <v>482</v>
-      </c>
-      <c r="I121" t="s">
-        <v>612</v>
-      </c>
-      <c r="J121" t="s">
-        <v>232</v>
-      </c>
-      <c r="K121" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>35</v>
       </c>
@@ -6774,34 +4655,22 @@
         <v>146</v>
       </c>
       <c r="C122" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D122" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E122" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F122" t="s">
-        <v>231</v>
+        <v>352</v>
       </c>
       <c r="G122" t="s">
-        <v>355</v>
-      </c>
-      <c r="H122" t="s">
-        <v>483</v>
-      </c>
-      <c r="I122" t="s">
-        <v>613</v>
-      </c>
-      <c r="J122" t="s">
-        <v>230</v>
-      </c>
-      <c r="K122" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>35</v>
       </c>
@@ -6809,34 +4678,22 @@
         <v>146</v>
       </c>
       <c r="C123" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D123" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E123" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F123" t="s">
-        <v>232</v>
+        <v>352</v>
       </c>
       <c r="G123" t="s">
-        <v>355</v>
-      </c>
-      <c r="H123" t="s">
-        <v>484</v>
-      </c>
-      <c r="I123" t="s">
-        <v>613</v>
-      </c>
-      <c r="J123" t="s">
-        <v>230</v>
-      </c>
-      <c r="K123" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>85</v>
       </c>
@@ -6844,34 +4701,22 @@
         <v>196</v>
       </c>
       <c r="C124" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D124" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E124" t="s">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="F124" t="s">
-        <v>248</v>
+        <v>353</v>
       </c>
       <c r="G124" t="s">
-        <v>356</v>
-      </c>
-      <c r="H124" t="s">
-        <v>485</v>
-      </c>
-      <c r="I124" t="s">
-        <v>614</v>
-      </c>
-      <c r="J124" t="s">
-        <v>248</v>
-      </c>
-      <c r="K124" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>92</v>
       </c>
@@ -6879,34 +4724,22 @@
         <v>203</v>
       </c>
       <c r="C125" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D125" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E125" t="s">
         <v>227</v>
       </c>
       <c r="F125" t="s">
-        <v>230</v>
+        <v>354</v>
       </c>
       <c r="G125" t="s">
-        <v>357</v>
-      </c>
-      <c r="H125" t="s">
-        <v>486</v>
-      </c>
-      <c r="I125" t="s">
-        <v>615</v>
-      </c>
-      <c r="J125" t="s">
-        <v>230</v>
-      </c>
-      <c r="K125" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>93</v>
       </c>
@@ -6914,34 +4747,22 @@
         <v>204</v>
       </c>
       <c r="C126" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D126" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E126" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F126" t="s">
-        <v>232</v>
+        <v>355</v>
       </c>
       <c r="G126" t="s">
-        <v>358</v>
-      </c>
-      <c r="H126" t="s">
-        <v>487</v>
-      </c>
-      <c r="I126" t="s">
-        <v>616</v>
-      </c>
-      <c r="J126" t="s">
-        <v>232</v>
-      </c>
-      <c r="K126" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>94</v>
       </c>
@@ -6949,34 +4770,22 @@
         <v>205</v>
       </c>
       <c r="C127" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D127" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E127" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="F127" t="s">
-        <v>254</v>
+        <v>356</v>
       </c>
       <c r="G127" t="s">
-        <v>359</v>
-      </c>
-      <c r="H127" t="s">
-        <v>488</v>
-      </c>
-      <c r="I127" t="s">
-        <v>617</v>
-      </c>
-      <c r="J127" t="s">
-        <v>254</v>
-      </c>
-      <c r="K127" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>95</v>
       </c>
@@ -6984,34 +4793,22 @@
         <v>206</v>
       </c>
       <c r="C128" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D128" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E128" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F128" t="s">
-        <v>232</v>
+        <v>357</v>
       </c>
       <c r="G128" t="s">
-        <v>360</v>
-      </c>
-      <c r="H128" t="s">
-        <v>489</v>
-      </c>
-      <c r="I128" t="s">
-        <v>618</v>
-      </c>
-      <c r="J128" t="s">
-        <v>232</v>
-      </c>
-      <c r="K128" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>96</v>
       </c>
@@ -7019,34 +4816,22 @@
         <v>207</v>
       </c>
       <c r="C129" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D129" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E129" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F129" t="s">
-        <v>232</v>
+        <v>358</v>
       </c>
       <c r="G129" t="s">
-        <v>361</v>
-      </c>
-      <c r="H129" t="s">
-        <v>490</v>
-      </c>
-      <c r="I129" t="s">
-        <v>619</v>
-      </c>
-      <c r="J129" t="s">
-        <v>231</v>
-      </c>
-      <c r="K129" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>96</v>
       </c>
@@ -7054,34 +4839,22 @@
         <v>207</v>
       </c>
       <c r="C130" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D130" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E130" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F130" t="s">
-        <v>232</v>
+        <v>359</v>
       </c>
       <c r="G130" t="s">
-        <v>362</v>
-      </c>
-      <c r="H130" t="s">
-        <v>491</v>
-      </c>
-      <c r="I130" t="s">
-        <v>619</v>
-      </c>
-      <c r="J130" t="s">
-        <v>231</v>
-      </c>
-      <c r="K130" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>97</v>
       </c>
@@ -7089,34 +4862,22 @@
         <v>208</v>
       </c>
       <c r="C131" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D131" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E131" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F131" t="s">
-        <v>242</v>
+        <v>360</v>
       </c>
       <c r="G131" t="s">
-        <v>363</v>
-      </c>
-      <c r="H131" t="s">
-        <v>492</v>
-      </c>
-      <c r="I131" t="s">
-        <v>620</v>
-      </c>
-      <c r="J131" t="s">
-        <v>242</v>
-      </c>
-      <c r="K131" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>34</v>
       </c>
@@ -7124,34 +4885,22 @@
         <v>145</v>
       </c>
       <c r="C132" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D132" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E132" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F132" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="G132" t="s">
-        <v>268</v>
-      </c>
-      <c r="H132" t="s">
-        <v>493</v>
-      </c>
-      <c r="I132" t="s">
-        <v>621</v>
-      </c>
-      <c r="J132" t="s">
-        <v>234</v>
-      </c>
-      <c r="K132" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>34</v>
       </c>
@@ -7159,34 +4908,22 @@
         <v>145</v>
       </c>
       <c r="C133" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D133" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E133" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F133" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="G133" t="s">
-        <v>268</v>
-      </c>
-      <c r="H133" t="s">
-        <v>493</v>
-      </c>
-      <c r="I133" t="s">
-        <v>621</v>
-      </c>
-      <c r="J133" t="s">
-        <v>234</v>
-      </c>
-      <c r="K133" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>34</v>
       </c>
@@ -7194,34 +4931,22 @@
         <v>145</v>
       </c>
       <c r="C134" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D134" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E134" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F134" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="G134" t="s">
-        <v>268</v>
-      </c>
-      <c r="H134" t="s">
-        <v>493</v>
-      </c>
-      <c r="I134" t="s">
-        <v>621</v>
-      </c>
-      <c r="J134" t="s">
-        <v>234</v>
-      </c>
-      <c r="K134" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>34</v>
       </c>
@@ -7229,34 +4954,22 @@
         <v>145</v>
       </c>
       <c r="C135" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D135" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E135" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F135" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="G135" t="s">
-        <v>268</v>
-      </c>
-      <c r="H135" t="s">
-        <v>493</v>
-      </c>
-      <c r="I135" t="s">
-        <v>621</v>
-      </c>
-      <c r="J135" t="s">
-        <v>234</v>
-      </c>
-      <c r="K135" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>34</v>
       </c>
@@ -7264,34 +4977,22 @@
         <v>145</v>
       </c>
       <c r="C136" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D136" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E136" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F136" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="G136" t="s">
-        <v>268</v>
-      </c>
-      <c r="H136" t="s">
-        <v>493</v>
-      </c>
-      <c r="I136" t="s">
-        <v>621</v>
-      </c>
-      <c r="J136" t="s">
-        <v>234</v>
-      </c>
-      <c r="K136" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>34</v>
       </c>
@@ -7299,34 +5000,22 @@
         <v>145</v>
       </c>
       <c r="C137" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D137" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E137" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F137" t="s">
-        <v>232</v>
+        <v>265</v>
       </c>
       <c r="G137" t="s">
-        <v>268</v>
-      </c>
-      <c r="H137" t="s">
-        <v>493</v>
-      </c>
-      <c r="I137" t="s">
-        <v>621</v>
-      </c>
-      <c r="J137" t="s">
-        <v>234</v>
-      </c>
-      <c r="K137" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>98</v>
       </c>
@@ -7334,34 +5023,22 @@
         <v>209</v>
       </c>
       <c r="C138" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D138" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E138" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F138" t="s">
-        <v>231</v>
+        <v>361</v>
       </c>
       <c r="G138" t="s">
-        <v>364</v>
-      </c>
-      <c r="H138" t="s">
-        <v>494</v>
-      </c>
-      <c r="I138" t="s">
-        <v>622</v>
-      </c>
-      <c r="J138" t="s">
-        <v>231</v>
-      </c>
-      <c r="K138" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>99</v>
       </c>
@@ -7369,34 +5046,22 @@
         <v>210</v>
       </c>
       <c r="C139" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D139" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E139" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F139" t="s">
-        <v>234</v>
+        <v>362</v>
       </c>
       <c r="G139" t="s">
-        <v>365</v>
-      </c>
-      <c r="H139" t="s">
-        <v>495</v>
-      </c>
-      <c r="I139" t="s">
-        <v>623</v>
-      </c>
-      <c r="J139" t="s">
-        <v>234</v>
-      </c>
-      <c r="K139" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>100</v>
       </c>
@@ -7404,34 +5069,22 @@
         <v>211</v>
       </c>
       <c r="C140" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D140" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E140" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F140" t="s">
-        <v>232</v>
+        <v>363</v>
       </c>
       <c r="G140" t="s">
-        <v>366</v>
-      </c>
-      <c r="H140" t="s">
-        <v>496</v>
-      </c>
-      <c r="I140" t="s">
-        <v>624</v>
-      </c>
-      <c r="J140" t="s">
-        <v>230</v>
-      </c>
-      <c r="K140" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>100</v>
       </c>
@@ -7439,34 +5092,22 @@
         <v>211</v>
       </c>
       <c r="C141" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D141" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E141" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F141" t="s">
-        <v>231</v>
+        <v>363</v>
       </c>
       <c r="G141" t="s">
-        <v>366</v>
-      </c>
-      <c r="H141" t="s">
-        <v>497</v>
-      </c>
-      <c r="I141" t="s">
-        <v>624</v>
-      </c>
-      <c r="J141" t="s">
-        <v>230</v>
-      </c>
-      <c r="K141" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>101</v>
       </c>
@@ -7474,34 +5115,22 @@
         <v>212</v>
       </c>
       <c r="C142" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D142" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E142" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F142" t="s">
-        <v>232</v>
+        <v>320</v>
       </c>
       <c r="G142" t="s">
-        <v>323</v>
-      </c>
-      <c r="H142" t="s">
-        <v>498</v>
-      </c>
-      <c r="I142" t="s">
-        <v>625</v>
-      </c>
-      <c r="J142" t="s">
-        <v>248</v>
-      </c>
-      <c r="K142" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>101</v>
       </c>
@@ -7509,34 +5138,22 @@
         <v>212</v>
       </c>
       <c r="C143" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D143" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E143" t="s">
         <v>227</v>
       </c>
       <c r="F143" t="s">
-        <v>230</v>
+        <v>320</v>
       </c>
       <c r="G143" t="s">
-        <v>323</v>
-      </c>
-      <c r="H143" t="s">
-        <v>499</v>
-      </c>
-      <c r="I143" t="s">
-        <v>625</v>
-      </c>
-      <c r="J143" t="s">
-        <v>248</v>
-      </c>
-      <c r="K143" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>101</v>
       </c>
@@ -7544,34 +5161,22 @@
         <v>212</v>
       </c>
       <c r="C144" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D144" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E144" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F144" t="s">
-        <v>231</v>
+        <v>320</v>
       </c>
       <c r="G144" t="s">
-        <v>323</v>
-      </c>
-      <c r="H144" t="s">
-        <v>500</v>
-      </c>
-      <c r="I144" t="s">
-        <v>625</v>
-      </c>
-      <c r="J144" t="s">
-        <v>248</v>
-      </c>
-      <c r="K144" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>101</v>
       </c>
@@ -7579,34 +5184,22 @@
         <v>212</v>
       </c>
       <c r="C145" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D145" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E145" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F145" t="s">
-        <v>242</v>
+        <v>320</v>
       </c>
       <c r="G145" t="s">
-        <v>323</v>
-      </c>
-      <c r="H145" t="s">
-        <v>501</v>
-      </c>
-      <c r="I145" t="s">
-        <v>625</v>
-      </c>
-      <c r="J145" t="s">
-        <v>248</v>
-      </c>
-      <c r="K145" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>102</v>
       </c>
@@ -7614,34 +5207,22 @@
         <v>213</v>
       </c>
       <c r="C146" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D146" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E146" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F146" t="s">
-        <v>232</v>
+        <v>364</v>
       </c>
       <c r="G146" t="s">
-        <v>367</v>
-      </c>
-      <c r="H146" t="s">
-        <v>502</v>
-      </c>
-      <c r="I146" t="s">
-        <v>626</v>
-      </c>
-      <c r="J146" t="s">
-        <v>230</v>
-      </c>
-      <c r="K146" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>102</v>
       </c>
@@ -7649,34 +5230,22 @@
         <v>213</v>
       </c>
       <c r="C147" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D147" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E147" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F147" t="s">
-        <v>231</v>
+        <v>364</v>
       </c>
       <c r="G147" t="s">
-        <v>367</v>
-      </c>
-      <c r="H147" t="s">
-        <v>503</v>
-      </c>
-      <c r="I147" t="s">
-        <v>626</v>
-      </c>
-      <c r="J147" t="s">
-        <v>230</v>
-      </c>
-      <c r="K147" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>103</v>
       </c>
@@ -7684,34 +5253,22 @@
         <v>214</v>
       </c>
       <c r="C148" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D148" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E148" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="F148" t="s">
-        <v>254</v>
+        <v>365</v>
       </c>
       <c r="G148" t="s">
-        <v>368</v>
-      </c>
-      <c r="H148" t="s">
-        <v>504</v>
-      </c>
-      <c r="I148" t="s">
-        <v>627</v>
-      </c>
-      <c r="J148" t="s">
-        <v>254</v>
-      </c>
-      <c r="K148" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>104</v>
       </c>
@@ -7719,34 +5276,22 @@
         <v>215</v>
       </c>
       <c r="C149" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D149" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E149" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F149" t="s">
-        <v>232</v>
+        <v>366</v>
       </c>
       <c r="G149" t="s">
-        <v>369</v>
-      </c>
-      <c r="H149" t="s">
-        <v>505</v>
-      </c>
-      <c r="I149" t="s">
-        <v>628</v>
-      </c>
-      <c r="J149" t="s">
-        <v>232</v>
-      </c>
-      <c r="K149" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>105</v>
       </c>
@@ -7754,34 +5299,22 @@
         <v>216</v>
       </c>
       <c r="C150" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D150" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E150" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F150" t="s">
-        <v>231</v>
+        <v>367</v>
       </c>
       <c r="G150" t="s">
-        <v>370</v>
-      </c>
-      <c r="H150" t="s">
-        <v>506</v>
-      </c>
-      <c r="I150" t="s">
-        <v>629</v>
-      </c>
-      <c r="J150" t="s">
-        <v>231</v>
-      </c>
-      <c r="K150" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>106</v>
       </c>
@@ -7789,34 +5322,22 @@
         <v>217</v>
       </c>
       <c r="C151" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D151" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E151" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="F151" t="s">
-        <v>242</v>
+        <v>368</v>
       </c>
       <c r="G151" t="s">
-        <v>371</v>
-      </c>
-      <c r="H151" t="s">
-        <v>507</v>
-      </c>
-      <c r="I151" t="s">
-        <v>630</v>
-      </c>
-      <c r="J151" t="s">
-        <v>242</v>
-      </c>
-      <c r="K151" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>107</v>
       </c>
@@ -7824,34 +5345,22 @@
         <v>218</v>
       </c>
       <c r="C152" t="s">
-        <v>223</v>
+        <v>499</v>
       </c>
       <c r="D152" t="s">
-        <v>721</v>
+        <v>224</v>
       </c>
       <c r="E152" t="s">
         <v>227</v>
       </c>
       <c r="F152" t="s">
-        <v>230</v>
+        <v>369</v>
       </c>
       <c r="G152" t="s">
-        <v>372</v>
-      </c>
-      <c r="H152" t="s">
-        <v>508</v>
-      </c>
-      <c r="I152" t="s">
-        <v>631</v>
-      </c>
-      <c r="J152" t="s">
-        <v>230</v>
-      </c>
-      <c r="K152" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
         <v>108</v>
       </c>
@@ -7859,34 +5368,22 @@
         <v>219</v>
       </c>
       <c r="C153" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D153" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E153" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F153" t="s">
-        <v>232</v>
+        <v>370</v>
       </c>
       <c r="G153" t="s">
-        <v>373</v>
-      </c>
-      <c r="H153" t="s">
-        <v>509</v>
-      </c>
-      <c r="I153" t="s">
-        <v>632</v>
-      </c>
-      <c r="J153" t="s">
-        <v>232</v>
-      </c>
-      <c r="K153" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
         <v>109</v>
       </c>
@@ -7894,95 +5391,65 @@
         <v>220</v>
       </c>
       <c r="C154" t="s">
-        <v>223</v>
+        <v>498</v>
       </c>
       <c r="D154" t="s">
-        <v>720</v>
+        <v>224</v>
       </c>
       <c r="E154" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F154" t="s">
-        <v>232</v>
+        <v>371</v>
       </c>
       <c r="G154" t="s">
-        <v>374</v>
-      </c>
-      <c r="H154" t="s">
-        <v>510</v>
-      </c>
-      <c r="I154" t="s">
-        <v>633</v>
-      </c>
-      <c r="J154" t="s">
-        <v>232</v>
-      </c>
-      <c r="K154" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>110</v>
       </c>
       <c r="B155" t="s">
         <v>221</v>
       </c>
+      <c r="C155" t="s">
+        <v>499</v>
+      </c>
       <c r="D155" t="s">
-        <v>721</v>
+        <v>225</v>
       </c>
       <c r="E155" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F155" t="s">
-        <v>232</v>
+        <v>372</v>
       </c>
       <c r="G155" t="s">
-        <v>375</v>
-      </c>
-      <c r="H155" t="s">
-        <v>375</v>
-      </c>
-      <c r="I155" t="s">
-        <v>634</v>
-      </c>
-      <c r="J155" t="s">
-        <v>232</v>
-      </c>
-      <c r="K155" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
         <v>110</v>
       </c>
       <c r="B156" t="s">
         <v>221</v>
       </c>
+      <c r="C156" t="s">
+        <v>499</v>
+      </c>
       <c r="D156" t="s">
-        <v>721</v>
+        <v>225</v>
       </c>
       <c r="E156" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F156" t="s">
-        <v>232</v>
+        <v>372</v>
       </c>
       <c r="G156" t="s">
-        <v>375</v>
-      </c>
-      <c r="H156" t="s">
-        <v>375</v>
-      </c>
-      <c r="I156" t="s">
-        <v>635</v>
-      </c>
-      <c r="J156" t="s">
-        <v>232</v>
-      </c>
-      <c r="K156" t="s">
-        <v>719</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
